--- a/wash_P/NEP.xlsx
+++ b/wash_P/NEP.xlsx
@@ -86350,7 +86350,7 @@
         <v>0</v>
       </c>
       <c r="AFE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFF27" t="n">
         <v>0</v>
